--- a/biology/Histoire de la zoologie et de la botanique/William_Gilson_Farlow/William_Gilson_Farlow.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Gilson_Farlow/William_Gilson_Farlow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Gilson Farlow est un botaniste américain, né le 17 décembre 1844 à Boston et mort le 3 juin 1919.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Harvard et obtient un Bachelor of Arts en 1866, un Master of Arts en 1869, un doctorat en médecine en 1870 et un doctorat de droit en 1896.
 Il étudie la botanique en Europe durant plusieurs années. Il obtient un doctorat à l’université de Glasgow en 1901 et à l’université du Wisconsin en 1904, enfin un dernier doctorat à l’université d'Uppsala en 1907.
